--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\workspace\teaching-bigdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2324-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5DB24B-BBF9-4767-8E20-3C33475217AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37980" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Calendar AA 2223" sheetId="1" r:id="rId1"/>
+    <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
+    <sheet name="Calendar AA 2223" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
   <si>
     <t>Lab</t>
   </si>
@@ -124,6 +125,24 @@
   </si>
   <si>
     <t>Aula 2.12, 4 (9-13)</t>
+  </si>
+  <si>
+    <t>LAB. 3.3, 3h (9-12)</t>
+  </si>
+  <si>
+    <t>AULA 2.6, 2h (9-11)</t>
+  </si>
+  <si>
+    <t>AULA 3.1, 2h (11-13)</t>
+  </si>
+  <si>
+    <t>Seminar: Data Reply</t>
+  </si>
+  <si>
+    <t>Seminar: Hera (big data)</t>
+  </si>
+  <si>
+    <t>NoSQL database</t>
   </si>
 </sst>
 </file>
@@ -168,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -200,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,16 +264,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -531,11 +578,561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA0065-A3C8-4E4D-B5EC-36CCF9E12688}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="A1:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45244</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>TEXT(WEEKDAY(A2), "ddd")</f>
+        <v>Tue</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SUM($E$2:E2)/$E$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45245</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B19" si="0">TEXT(WEEKDAY(A3), "ddd")</f>
+        <v>Wed</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10">
+        <f>SUM($E$2:E3)/$E$20</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f>A3</f>
+        <v>45245</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM($E$2:E4)/$E$20</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f>A2+7</f>
+        <v>45251</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="10">
+        <f>SUM($E$2:E5)/$E$20</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f>A3+7</f>
+        <v>45252</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM($E$2:E6)/$E$20</f>
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f>A6</f>
+        <v>45252</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM($E$2:E7)/$E$20</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>A5+7</f>
+        <v>45258</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM($E$2:E8)/$E$20</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="H8" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f>A6+7</f>
+        <v>45259</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10">
+        <f>SUM($E$2:E9)/$E$20</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f>A9</f>
+        <v>45259</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM($E$2:E10)/$E$20</f>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f>A8+7</f>
+        <v>45265</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM($E$2:E11)/$E$20</f>
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>A9+7</f>
+        <v>45266</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM($E$2:E12)/$E$20</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f>A12</f>
+        <v>45266</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM($E$2:E13)/$E$20</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f>A11+7</f>
+        <v>45272</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM($E$2:E14)/$E$20</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H14" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f>A12+7</f>
+        <v>45273</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="10">
+        <f>SUM($E$2:E15)/$E$20</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f>A15</f>
+        <v>45273</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="10">
+        <f>SUM($E$2:E16)/$E$20</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f>A14+7</f>
+        <v>45279</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <f>SUM($E$2:E17)/$E$20</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f>A15+7</f>
+        <v>45280</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="10">
+        <f>SUM($E$2:E18)/$E$20</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f>A18</f>
+        <v>45280</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="10">
+        <f>SUM($E$2:E19)/$E$20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <f>SUM(E2:E19)</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Theory"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +1190,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -621,12 +1218,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2324-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5DB24B-BBF9-4767-8E20-3C33475217AA}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52022319-38DC-4BE6-842F-9CFCB6225E22}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37980" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
   <si>
     <t>Lab</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>NoSQL database</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Tot</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,25 +270,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA0065-A3C8-4E4D-B5EC-36CCF9E12688}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G19" sqref="A1:G19"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,12 +595,11 @@
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -613,17 +615,14 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45244</v>
       </c>
@@ -640,18 +639,15 @@
       <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
-        <f>SUM($E$2:E2)/$E$20</f>
+        <f>SUM($E$2:E2)/$E$21</f>
         <v>0.1</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45245</v>
       </c>
@@ -668,16 +664,15 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="10">
-        <f>SUM($E$2:E3)/$E$20</f>
+        <f>SUM($E$2:E3)/$E$21</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3</f>
         <v>45245</v>
@@ -695,16 +690,15 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="10">
-        <f>SUM($E$2:E4)/$E$20</f>
+        <f>SUM($E$2:E4)/$E$21</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A2+7</f>
         <v>45251</v>
@@ -722,16 +716,15 @@
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="10">
-        <f>SUM($E$2:E5)/$E$20</f>
+        <f>SUM($E$2:E5)/$E$21</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A3+7</f>
         <v>45252</v>
@@ -749,18 +742,15 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="10">
-        <f>SUM($E$2:E6)/$E$20</f>
+        <f>SUM($E$2:E6)/$E$21</f>
         <v>0.4</v>
       </c>
-      <c r="H6" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>A6</f>
         <v>45252</v>
@@ -778,16 +768,15 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="10">
-        <f>SUM($E$2:E7)/$E$20</f>
+        <f>SUM($E$2:E7)/$E$21</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>A5+7</f>
         <v>45258</v>
@@ -805,18 +794,15 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="10">
-        <f>SUM($E$2:E8)/$E$20</f>
+        <f>SUM($E$2:E8)/$E$21</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="H8" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>A6+7</f>
         <v>45259</v>
@@ -834,16 +820,15 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="10">
-        <f>SUM($E$2:E9)/$E$20</f>
+        <f>SUM($E$2:E9)/$E$21</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>A9</f>
         <v>45259</v>
@@ -861,18 +846,15 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="10">
-        <f>SUM($E$2:E10)/$E$20</f>
+        <f>SUM($E$2:E10)/$E$21</f>
         <v>0.7</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>A8+7</f>
         <v>45265</v>
@@ -884,22 +866,21 @@
       <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="10">
-        <f>SUM($E$2:E11)/$E$20</f>
+        <f>SUM($E$2:E11)/$E$21</f>
         <v>0.8</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>A9+7</f>
         <v>45266</v>
@@ -917,16 +898,15 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="10">
-        <f>SUM($E$2:E12)/$E$20</f>
+        <f>SUM($E$2:E12)/$E$21</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>A12</f>
         <v>45266</v>
@@ -944,16 +924,15 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="10">
-        <f>SUM($E$2:E13)/$E$20</f>
+        <f>SUM($E$2:E13)/$E$21</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A11+7</f>
         <v>45272</v>
@@ -965,24 +944,21 @@
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="10">
-        <f>SUM($E$2:E14)/$E$20</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="H14" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM($E$2:E14)/$E$21</f>
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>A12+7</f>
         <v>45273</v>
@@ -997,19 +973,18 @@
       <c r="D15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="10">
-        <f>SUM($E$2:E15)/$E$20</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM($E$2:E15)/$E$21</f>
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>A15</f>
         <v>45273</v>
@@ -1024,14 +999,16 @@
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16"/>
       <c r="G16" s="10">
-        <f>SUM($E$2:E16)/$E$20</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM($E$2:E16)/$E$21</f>
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>A14+7</f>
         <v>45279</v>
@@ -1046,13 +1023,15 @@
       <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G17" s="10">
-        <f>SUM($E$2:E17)/$E$20</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM($E$2:E17)/$E$21</f>
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f>A15+7</f>
         <v>45280</v>
@@ -1067,14 +1046,16 @@
       <c r="D18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="10">
-        <f>SUM($E$2:E18)/$E$20</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM($E$2:E18)/$E$21</f>
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f>A18</f>
         <v>45280</v>
@@ -1089,23 +1070,34 @@
       <c r="D19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="10">
-        <f>SUM($E$2:E19)/$E$20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM($E$2:E19)/$E$21</f>
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E20" s="2">
         <f>SUM(E2:E19)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:H3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D19 D21:D1048576 E21">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
@@ -1190,14 +1182,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1218,12 +1210,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2324-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52022319-38DC-4BE6-842F-9CFCB6225E22}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF6AC4C-4364-4555-A8BC-B68CE897E649}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="39">
   <si>
     <t>Lab</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Tot</t>
+  </si>
+  <si>
+    <t>Introduction, towards data platforms + NoSQL (30 min)</t>
   </si>
 </sst>
 </file>
@@ -282,10 +285,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +588,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,8 +636,8 @@
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -665,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$21</f>
@@ -710,8 +713,8 @@
       <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -788,8 +791,8 @@
       <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -821,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="10">
         <f>SUM($E$2:E9)/$E$21</f>
@@ -847,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="10">
         <f>SUM($E$2:E10)/$E$21</f>
@@ -899,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G12" s="10">
         <f>SUM($E$2:E12)/$E$21</f>
@@ -976,9 +979,6 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="G15" s="10">
         <f>SUM($E$2:E15)/$E$21</f>
         <v>1.0333333333333334</v>
@@ -1020,8 +1020,8 @@
       <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
+      <c r="D17" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -1097,7 +1097,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D19 D21:D1048576 E21">
+  <conditionalFormatting sqref="D21:D1048576 E21 D1:D19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="A1:G18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,14 +1182,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1210,12 +1210,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2324-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF6AC4C-4364-4555-A8BC-B68CE897E649}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61392D36-5EA4-448B-AB47-46872F0E1A13}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
   <si>
     <t>Lab</t>
   </si>
@@ -152,13 +152,31 @@
   </si>
   <si>
     <t>Introduction, towards data platforms + NoSQL (30 min)</t>
+  </si>
+  <si>
+    <t>Lab: DL, DWH pt.1</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Shorten the NoSQL details and add some discussion on Fiware data models</t>
+  </si>
+  <si>
+    <t>Could add something about managing privacy through metadata (see Salesforce)</t>
+  </si>
+  <si>
+    <t>TBD (Hands on?)</t>
+  </si>
+  <si>
+    <t>https://architect.salesforce.com/fundamentals/platform-multitenant-architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +209,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,10 +264,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,14 +318,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -585,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA0065-A3C8-4E4D-B5EC-36CCF9E12688}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +649,7 @@
     <col min="7" max="7" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -624,8 +671,11 @@
       <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45244</v>
       </c>
@@ -639,10 +689,10 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="17">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
@@ -650,7 +700,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45245</v>
       </c>
@@ -664,18 +714,21 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="17">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$21</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3</f>
         <v>45245</v>
@@ -690,18 +743,21 @@
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="10">
         <f>SUM($E$2:E4)/$E$21</f>
         <v>0.23333333333333334</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A2+7</f>
         <v>45251</v>
@@ -716,18 +772,21 @@
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="17">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="10">
         <f>SUM($E$2:E5)/$E$21</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A3+7</f>
         <v>45252</v>
@@ -753,7 +812,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>A6</f>
         <v>45252</v>
@@ -772,14 +831,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G7" s="10">
         <f>SUM($E$2:E7)/$E$21</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>A5+7</f>
         <v>45258</v>
@@ -805,7 +864,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>A6+7</f>
         <v>45259</v>
@@ -831,7 +890,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>A9</f>
         <v>45259</v>
@@ -857,7 +916,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>A8+7</f>
         <v>45265</v>
@@ -883,7 +942,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>A9+7</f>
         <v>45266</v>
@@ -909,7 +968,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>A12</f>
         <v>45266</v>
@@ -928,14 +987,14 @@
         <v>2</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G13" s="10">
         <f>SUM($E$2:E13)/$E$21</f>
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A11+7</f>
         <v>45272</v>
@@ -961,7 +1020,7 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>A12+7</f>
         <v>45273</v>
@@ -984,7 +1043,7 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>A15</f>
         <v>45273</v>
@@ -1114,8 +1173,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{922831C9-06CF-4175-BF25-76682238DB37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1182,14 +1244,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1210,12 +1272,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2324-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61392D36-5EA4-448B-AB47-46872F0E1A13}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA53EC83-72CF-46A7-96CF-0C92AD941C58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>Lab</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>https://architect.salesforce.com/fundamentals/platform-multitenant-architecture</t>
+  </si>
+  <si>
+    <t>Show the AWS console</t>
+  </si>
+  <si>
+    <t>Problem with power bi</t>
   </si>
 </sst>
 </file>
@@ -327,14 +333,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,7 +641,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +759,7 @@
         <f>SUM($E$2:E4)/$E$21</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -801,15 +807,18 @@
       <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="17">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="10">
         <f>SUM($E$2:E6)/$E$21</f>
         <v>0.4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -827,10 +836,10 @@
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="10">
@@ -853,10 +862,10 @@
       <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="10">
@@ -914,6 +923,9 @@
       <c r="G10" s="10">
         <f>SUM($E$2:E10)/$E$21</f>
         <v>0.7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1244,14 +1256,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1272,12 +1284,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2324-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA53EC83-72CF-46A7-96CF-0C92AD941C58}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B72EBFF-9313-4009-B710-C4C882D16297}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
   <si>
     <t>Lab</t>
   </si>
@@ -163,12 +163,6 @@
     <t>Shorten the NoSQL details and add some discussion on Fiware data models</t>
   </si>
   <si>
-    <t>Could add something about managing privacy through metadata (see Salesforce)</t>
-  </si>
-  <si>
-    <t>TBD (Hands on?)</t>
-  </si>
-  <si>
     <t>https://architect.salesforce.com/fundamentals/platform-multitenant-architecture</t>
   </si>
   <si>
@@ -176,6 +170,18 @@
   </si>
   <si>
     <t>Problem with power bi</t>
+  </si>
+  <si>
+    <t>Data pipelines on cloud (Streaming) + Streaming Migration</t>
+  </si>
+  <si>
+    <t>Summing up</t>
+  </si>
+  <si>
+    <t>Update migration with notes from Fabio</t>
+  </si>
+  <si>
+    <t>Could add something about managing privacy through metadata (see Salesforce). Introduce the case studies earlier as examples of DTM</t>
   </si>
 </sst>
 </file>
@@ -640,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA0065-A3C8-4E4D-B5EC-36CCF9E12688}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +737,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,7 +766,7 @@
         <v>0.23333333333333334</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,7 +824,7 @@
         <v>0.4</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -891,12 +897,15 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="10">
         <f>SUM($E$2:E9)/$E$21</f>
         <v>0.6333333333333333</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -917,7 +926,7 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="19" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="10">
@@ -925,7 +934,7 @@
         <v>0.7</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -946,7 +955,7 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="10">
@@ -973,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G12" s="10">
         <f>SUM($E$2:E12)/$E$21</f>
@@ -999,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" s="10">
         <f>SUM($E$2:E13)/$E$21</f>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2324-unibo-bigdataandcloudplatforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Alma Mater Studiorum Università di Bologna\teaching-bigdata\AA2324-unibo-bigdataandcloudplatforms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{CE12D187-AD44-44F8-A95C-C78156DF0877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B72EBFF-9313-4009-B710-C4C882D16297}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDA03C-5960-4692-996D-6DF5A982F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
   <si>
     <t>Lab</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Could add something about managing privacy through metadata (see Salesforce). Introduce the case studies earlier as examples of DTM</t>
+  </si>
+  <si>
+    <t>New lab on building data products?</t>
+  </si>
+  <si>
+    <t>Check the data management and data mesh books</t>
   </si>
 </sst>
 </file>
@@ -646,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA0065-A3C8-4E4D-B5EC-36CCF9E12688}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I15" sqref="A9:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +900,7 @@
       <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -923,7 +929,7 @@
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="17">
         <v>2</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -952,7 +958,7 @@
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="17">
         <v>3</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -978,10 +984,10 @@
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="19" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="10">
@@ -1004,10 +1010,10 @@
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="10">
@@ -1030,15 +1036,18 @@
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="17">
+        <v>3</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="10">
         <f>SUM($E$2:E14)/$E$21</f>
         <v>1.0333333333333334</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1062,6 +1071,9 @@
       <c r="G15" s="10">
         <f>SUM($E$2:E15)/$E$21</f>
         <v>1.0333333333333334</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
